--- a/Code/Results/Cases/Case_8_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_57/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.90416305275452</v>
+        <v>14.2096007308217</v>
       </c>
       <c r="C2">
-        <v>12.04886028161417</v>
+        <v>12.93421013430453</v>
       </c>
       <c r="D2">
-        <v>4.923515964035967</v>
+        <v>4.64528644814698</v>
       </c>
       <c r="E2">
-        <v>28.00053885157386</v>
+        <v>28.21412363844922</v>
       </c>
       <c r="F2">
-        <v>30.57975314413801</v>
+        <v>28.04896916329597</v>
       </c>
       <c r="G2">
-        <v>2.108791170902228</v>
+        <v>4.704406874958742</v>
       </c>
       <c r="H2">
-        <v>2.284260704608831</v>
+        <v>2.458694999723514</v>
       </c>
       <c r="I2">
-        <v>2.854173923942262</v>
+        <v>2.541690384545889</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.888289965466</v>
+        <v>18.74852080392854</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>15.55057291247338</v>
       </c>
       <c r="M2">
-        <v>14.19480391795361</v>
+        <v>12.38813693805609</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>14.08658643431338</v>
       </c>
       <c r="P2">
-        <v>14.37025258505755</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>13.55593404500769</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.94553542912568</v>
+        <v>13.29946499774668</v>
       </c>
       <c r="C3">
-        <v>11.20592546781563</v>
+        <v>12.01926251283485</v>
       </c>
       <c r="D3">
-        <v>4.904785652478613</v>
+        <v>4.585996090987881</v>
       </c>
       <c r="E3">
-        <v>26.08618301908052</v>
+        <v>26.33156078051597</v>
       </c>
       <c r="F3">
-        <v>29.46091972722665</v>
+        <v>27.05019273386836</v>
       </c>
       <c r="G3">
-        <v>2.114549527468298</v>
+        <v>5.407577547339892</v>
       </c>
       <c r="H3">
-        <v>2.007620002919875</v>
+        <v>2.210169386192165</v>
       </c>
       <c r="I3">
-        <v>3.077504410729923</v>
+        <v>2.711385806365924</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>20.46216420873975</v>
+        <v>18.43347327265037</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>15.47789411593</v>
       </c>
       <c r="M3">
-        <v>13.24150614044031</v>
+        <v>11.97597297073502</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>13.18738183925545</v>
       </c>
       <c r="P3">
-        <v>14.44237312639564</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>13.64710781823709</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.32667976840731</v>
+        <v>12.70455819152447</v>
       </c>
       <c r="C4">
-        <v>10.66325292763388</v>
+        <v>11.42802770123824</v>
       </c>
       <c r="D4">
-        <v>4.891653538808128</v>
+        <v>4.547732182836814</v>
       </c>
       <c r="E4">
-        <v>24.84395849259876</v>
+        <v>25.10907025661585</v>
       </c>
       <c r="F4">
-        <v>28.75952108581378</v>
+        <v>26.41905648257354</v>
       </c>
       <c r="G4">
-        <v>2.118187730572366</v>
+        <v>5.852559832579526</v>
       </c>
       <c r="H4">
-        <v>1.832210954052309</v>
+        <v>2.052329678230233</v>
       </c>
       <c r="I4">
-        <v>3.21963758807042</v>
+        <v>2.820080168740571</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>20.19763464405793</v>
+        <v>18.23536764388011</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>15.42658017478257</v>
       </c>
       <c r="M4">
-        <v>12.62174964179279</v>
+        <v>11.73354874860367</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>12.60272276065332</v>
       </c>
       <c r="P4">
-        <v>14.48699712599523</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>13.70276017729717</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.05894374535426</v>
+        <v>12.4464637767568</v>
       </c>
       <c r="C5">
-        <v>10.44242246268971</v>
+        <v>11.18595036607739</v>
       </c>
       <c r="D5">
-        <v>4.885661640393067</v>
+        <v>4.531846464216656</v>
       </c>
       <c r="E5">
-        <v>24.32053076418849</v>
+        <v>24.59381485468452</v>
       </c>
       <c r="F5">
-        <v>28.45509810307395</v>
+        <v>26.14302932098261</v>
       </c>
       <c r="G5">
-        <v>2.119707835244677</v>
+        <v>6.038641219585713</v>
       </c>
       <c r="H5">
-        <v>1.759045757757611</v>
+        <v>1.986462939643812</v>
       </c>
       <c r="I5">
-        <v>3.281806064001049</v>
+        <v>2.869062024517886</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>20.07754341548211</v>
+        <v>18.1427534732101</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>15.39518366724459</v>
       </c>
       <c r="M5">
-        <v>12.38284007469374</v>
+        <v>11.63027496312119</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>12.35408142606066</v>
       </c>
       <c r="P5">
-        <v>14.50173368001382</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>13.72243786256191</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.00530606713972</v>
+        <v>12.39504873396396</v>
       </c>
       <c r="C6">
-        <v>10.4135291205838</v>
+        <v>11.15301314030241</v>
       </c>
       <c r="D6">
-        <v>4.884364860125498</v>
+        <v>4.529402174607338</v>
       </c>
       <c r="E6">
-        <v>24.23223455759476</v>
+        <v>24.50692532069161</v>
       </c>
       <c r="F6">
-        <v>28.38565686601778</v>
+        <v>26.07910378703491</v>
       </c>
       <c r="G6">
-        <v>2.119975291755958</v>
+        <v>6.071391937033591</v>
       </c>
       <c r="H6">
-        <v>1.746496094905955</v>
+        <v>1.975196219761429</v>
       </c>
       <c r="I6">
-        <v>3.296009760792064</v>
+        <v>2.881840337514534</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>20.0433329098581</v>
+        <v>18.11417002558828</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>15.37913763042883</v>
       </c>
       <c r="M6">
-        <v>12.34097184972624</v>
+        <v>11.60411586814175</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>12.30961881778639</v>
       </c>
       <c r="P6">
-        <v>14.49987731946556</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>13.72213648144675</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.29995809986008</v>
+        <v>12.66124708048736</v>
       </c>
       <c r="C7">
-        <v>10.68200169740401</v>
+        <v>11.39565161762192</v>
       </c>
       <c r="D7">
-        <v>4.890845419261107</v>
+        <v>4.549824302482183</v>
       </c>
       <c r="E7">
-        <v>24.83599968034257</v>
+        <v>25.09947688770962</v>
       </c>
       <c r="F7">
-        <v>28.70498464587393</v>
+        <v>26.27317604376854</v>
       </c>
       <c r="G7">
-        <v>2.118244332193199</v>
+        <v>5.914438727121633</v>
       </c>
       <c r="H7">
-        <v>1.830383435167888</v>
+        <v>2.049299910815362</v>
       </c>
       <c r="I7">
-        <v>3.230598739139542</v>
+        <v>2.835311141859198</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>20.15740597337075</v>
+        <v>18.14718557342778</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>15.35600840426056</v>
       </c>
       <c r="M7">
-        <v>12.61038017859167</v>
+        <v>11.67017631938088</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>12.56460304862001</v>
       </c>
       <c r="P7">
-        <v>14.47547137217216</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>13.67780431568562</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.54849531062447</v>
+        <v>13.82021096456806</v>
       </c>
       <c r="C8">
-        <v>11.78968197568431</v>
+        <v>12.49781831725113</v>
       </c>
       <c r="D8">
-        <v>4.916577446252537</v>
+        <v>4.633431875121616</v>
       </c>
       <c r="E8">
-        <v>27.35299283571318</v>
+        <v>27.57177689684651</v>
       </c>
       <c r="F8">
-        <v>30.13333474792548</v>
+        <v>27.34996189026018</v>
       </c>
       <c r="G8">
-        <v>2.110801795882651</v>
+        <v>5.239930822851155</v>
       </c>
       <c r="H8">
-        <v>2.188927907916849</v>
+        <v>2.368529441946496</v>
       </c>
       <c r="I8">
-        <v>2.943367391970361</v>
+        <v>2.622817961887043</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>20.6921823952482</v>
+        <v>18.42998069879705</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>15.36282413811965</v>
       </c>
       <c r="M8">
-        <v>13.86359787625677</v>
+        <v>12.08654630640214</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>13.68929447624112</v>
       </c>
       <c r="P8">
-        <v>14.37972247116529</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>13.52529516205475</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.8778951569197</v>
+        <v>15.91041843882217</v>
       </c>
       <c r="C9">
-        <v>13.73097444743929</v>
+        <v>14.57690125898636</v>
       </c>
       <c r="D9">
-        <v>4.955000489672807</v>
+        <v>4.774050810846203</v>
       </c>
       <c r="E9">
-        <v>31.7661066518432</v>
+        <v>31.90351450037549</v>
       </c>
       <c r="F9">
-        <v>32.89254160566832</v>
+        <v>29.73756591492546</v>
       </c>
       <c r="G9">
-        <v>2.096924956311632</v>
+        <v>3.707638718033521</v>
       </c>
       <c r="H9">
-        <v>2.850953211959589</v>
+        <v>2.960468717788406</v>
       </c>
       <c r="I9">
-        <v>2.553088445038328</v>
+        <v>2.743929141651196</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.78192135009973</v>
+        <v>19.19523080892405</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>15.52165047996338</v>
       </c>
       <c r="M9">
-        <v>16.0631096993287</v>
+        <v>13.15549063206055</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>15.75024724116865</v>
       </c>
       <c r="P9">
-        <v>14.21560992549303</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>13.2956989716786</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.35294014550392</v>
+        <v>17.1436688416905</v>
       </c>
       <c r="C10">
-        <v>14.95277302789756</v>
+        <v>15.64993121716151</v>
       </c>
       <c r="D10">
-        <v>4.97787214499921</v>
+        <v>4.901305909557755</v>
       </c>
       <c r="E10">
-        <v>33.81377356659853</v>
+        <v>33.8817818047487</v>
       </c>
       <c r="F10">
-        <v>34.56987585491478</v>
+        <v>30.70075286183516</v>
       </c>
       <c r="G10">
-        <v>2.087499552282742</v>
+        <v>4.269365289292077</v>
       </c>
       <c r="H10">
-        <v>3.275773865652885</v>
+        <v>3.328759277992968</v>
       </c>
       <c r="I10">
-        <v>2.908827629124334</v>
+        <v>3.002562172380379</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>22.39915321970011</v>
+        <v>19.3307923385006</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>15.31646758433504</v>
       </c>
       <c r="M10">
-        <v>17.44832897449934</v>
+        <v>13.64614144410647</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>16.9209141418542</v>
       </c>
       <c r="P10">
-        <v>14.04168786441665</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>13.00752413535833</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.51024433245756</v>
+        <v>17.16088329029415</v>
       </c>
       <c r="C11">
-        <v>14.6902599413752</v>
+        <v>14.8720345438114</v>
       </c>
       <c r="D11">
-        <v>5.047081888917765</v>
+        <v>5.173754638813818</v>
       </c>
       <c r="E11">
-        <v>27.16780771742503</v>
+        <v>27.20902435808896</v>
       </c>
       <c r="F11">
-        <v>33.20188163170686</v>
+        <v>28.47343732502952</v>
       </c>
       <c r="G11">
-        <v>2.086000569044798</v>
+        <v>8.058261140892583</v>
       </c>
       <c r="H11">
-        <v>3.757494864127374</v>
+        <v>3.783819565107824</v>
       </c>
       <c r="I11">
-        <v>2.974349281797837</v>
+        <v>3.034946481446223</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.35927919104541</v>
+        <v>17.87647267307795</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.1439783552154</v>
       </c>
       <c r="M11">
-        <v>17.47213414109873</v>
+        <v>12.6531897115448</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>16.6868316278997</v>
       </c>
       <c r="P11">
-        <v>13.53393496645528</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>12.50453059059829</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.37178195469289</v>
+        <v>17.00240472024474</v>
       </c>
       <c r="C12">
-        <v>14.19737595459831</v>
+        <v>14.1104383571103</v>
       </c>
       <c r="D12">
-        <v>5.141359756981182</v>
+        <v>5.4096615524052</v>
       </c>
       <c r="E12">
-        <v>21.11766980718385</v>
+        <v>21.15720521111625</v>
       </c>
       <c r="F12">
-        <v>31.74369771765979</v>
+        <v>26.72339872430501</v>
       </c>
       <c r="G12">
-        <v>2.086374927426372</v>
+        <v>9.948717576459918</v>
       </c>
       <c r="H12">
-        <v>4.717173374831948</v>
+        <v>4.735453117323187</v>
       </c>
       <c r="I12">
-        <v>2.960908065092475</v>
+        <v>3.017699674153509</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20.40262852199041</v>
+        <v>16.84994518000254</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>13.38008802988236</v>
       </c>
       <c r="M12">
-        <v>17.22258582983059</v>
+        <v>11.87778132140411</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>16.33888746031683</v>
       </c>
       <c r="P12">
-        <v>13.18723968947748</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.25628340808004</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.96735250012264</v>
+        <v>16.70561135762008</v>
       </c>
       <c r="C13">
-        <v>13.50634580281922</v>
+        <v>13.403967726026</v>
       </c>
       <c r="D13">
-        <v>5.254295735501549</v>
+        <v>5.575575696736315</v>
       </c>
       <c r="E13">
-        <v>14.98054616317938</v>
+        <v>15.04433035554411</v>
       </c>
       <c r="F13">
-        <v>30.02843526562295</v>
+        <v>25.3257982428273</v>
       </c>
       <c r="G13">
-        <v>2.088252045521825</v>
+        <v>9.588954860029258</v>
       </c>
       <c r="H13">
-        <v>5.859008679886995</v>
+        <v>5.879073343204261</v>
       </c>
       <c r="I13">
-        <v>2.890016626909119</v>
+        <v>2.96902573330358</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.38801200553931</v>
+        <v>16.12179122699618</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.88547533736944</v>
       </c>
       <c r="M13">
-        <v>16.73175470647362</v>
+        <v>11.26112895467664</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.91598211154962</v>
       </c>
       <c r="P13">
-        <v>12.9282148604509</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.15795408623169</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.55391120152707</v>
+        <v>16.42522607425694</v>
       </c>
       <c r="C14">
-        <v>12.9294211645584</v>
+        <v>12.9247438101935</v>
       </c>
       <c r="D14">
-        <v>5.344550253965616</v>
+        <v>5.653257710322775</v>
       </c>
       <c r="E14">
-        <v>10.60097986386546</v>
+        <v>10.70367591803674</v>
       </c>
       <c r="F14">
-        <v>28.68460098396514</v>
+        <v>24.46987875882222</v>
       </c>
       <c r="G14">
-        <v>2.090217102608001</v>
+        <v>8.366637050111494</v>
       </c>
       <c r="H14">
-        <v>6.72400602135909</v>
+        <v>6.746951940054499</v>
       </c>
       <c r="I14">
-        <v>2.81671887703301</v>
+        <v>2.922352719481485</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.64184015533039</v>
+        <v>15.72292610657332</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>12.63840332015675</v>
       </c>
       <c r="M14">
-        <v>16.27180047958598</v>
+        <v>10.88591191674064</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.57687882235394</v>
       </c>
       <c r="P14">
-        <v>12.79007347116791</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.14145113659553</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.38724582693091</v>
+        <v>16.3165657716786</v>
       </c>
       <c r="C15">
-        <v>12.74928160340555</v>
+        <v>12.81477330193612</v>
       </c>
       <c r="D15">
-        <v>5.366381275729588</v>
+        <v>5.652472504775591</v>
       </c>
       <c r="E15">
-        <v>9.506520006872812</v>
+        <v>9.628746608750257</v>
       </c>
       <c r="F15">
-        <v>28.28554863424794</v>
+        <v>24.30334434809973</v>
       </c>
       <c r="G15">
-        <v>2.091063927281428</v>
+        <v>7.667165896828543</v>
       </c>
       <c r="H15">
-        <v>6.921886072316405</v>
+        <v>6.946533646510177</v>
       </c>
       <c r="I15">
-        <v>2.786949306018217</v>
+        <v>2.904905712952579</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.43598675918735</v>
+        <v>15.66365675550787</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>12.61338268938434</v>
       </c>
       <c r="M15">
-        <v>16.10323154859252</v>
+        <v>10.81114355994868</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.46974795364879</v>
       </c>
       <c r="P15">
-        <v>12.76914169847264</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.15455714712571</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.82430870323277</v>
+        <v>15.96706787918388</v>
       </c>
       <c r="C16">
-        <v>12.33860249943597</v>
+        <v>12.79328107622499</v>
       </c>
       <c r="D16">
-        <v>5.32742626125314</v>
+        <v>5.458510488038164</v>
       </c>
       <c r="E16">
-        <v>9.354121752084076</v>
+        <v>9.533054707700074</v>
       </c>
       <c r="F16">
-        <v>27.81166660429887</v>
+        <v>24.76371941237624</v>
       </c>
       <c r="G16">
-        <v>2.094663427106229</v>
+        <v>4.624442346974048</v>
       </c>
       <c r="H16">
-        <v>6.640543353377332</v>
+        <v>6.676228733961871</v>
       </c>
       <c r="I16">
-        <v>2.654612121755146</v>
+        <v>2.823652839246232</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.3355956831062</v>
+        <v>16.07029865262887</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.98592585707726</v>
       </c>
       <c r="M16">
-        <v>15.59438341219381</v>
+        <v>11.00682874429481</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>15.22895631988999</v>
       </c>
       <c r="P16">
-        <v>12.8920548607916</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.32162971197383</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.61309101383535</v>
+        <v>15.82610755621491</v>
       </c>
       <c r="C17">
-        <v>12.34204999984988</v>
+        <v>12.9907084635316</v>
       </c>
       <c r="D17">
-        <v>5.24754752812221</v>
+        <v>5.295008457450187</v>
       </c>
       <c r="E17">
-        <v>11.68193828170267</v>
+        <v>11.86261849652598</v>
       </c>
       <c r="F17">
-        <v>28.18380015877319</v>
+        <v>25.47702364565915</v>
       </c>
       <c r="G17">
-        <v>2.096416823805989</v>
+        <v>3.718457295032569</v>
       </c>
       <c r="H17">
-        <v>5.91131804283668</v>
+        <v>5.956350866339564</v>
       </c>
       <c r="I17">
-        <v>2.591113272837839</v>
+        <v>2.783716333524986</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.6581383185646</v>
+        <v>16.54802977708295</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.38301159533501</v>
       </c>
       <c r="M17">
-        <v>15.45217437360988</v>
+        <v>11.31050551040246</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>15.19618057139764</v>
       </c>
       <c r="P17">
-        <v>13.05603948302541</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.46966964804319</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.7073295925082</v>
+        <v>15.9023726845049</v>
       </c>
       <c r="C18">
-        <v>12.69949319720947</v>
+        <v>13.47267842996666</v>
       </c>
       <c r="D18">
-        <v>5.137503922833172</v>
+        <v>5.125533850189011</v>
       </c>
       <c r="E18">
-        <v>16.52308066846239</v>
+        <v>16.68210143124439</v>
       </c>
       <c r="F18">
-        <v>29.36108538313019</v>
+        <v>26.69128700035605</v>
       </c>
       <c r="G18">
-        <v>2.096605173953707</v>
+        <v>3.432026881828888</v>
       </c>
       <c r="H18">
-        <v>4.777455618034653</v>
+        <v>4.835735909400556</v>
       </c>
       <c r="I18">
-        <v>2.58017258580819</v>
+        <v>2.776426009423507</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.41352828494109</v>
+        <v>17.2635433827149</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>13.934205795659</v>
       </c>
       <c r="M18">
-        <v>15.62623130181863</v>
+        <v>11.83647947859379</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>15.39783924175489</v>
       </c>
       <c r="P18">
-        <v>13.29743931319307</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.64843692569753</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.00822764951234</v>
+        <v>16.13116760965309</v>
       </c>
       <c r="C19">
-        <v>13.34714824970692</v>
+        <v>14.21060402331369</v>
       </c>
       <c r="D19">
-        <v>5.041135102992793</v>
+        <v>4.97931036827787</v>
       </c>
       <c r="E19">
-        <v>22.9812045707325</v>
+        <v>23.11840886081765</v>
       </c>
       <c r="F19">
-        <v>31.00620810269143</v>
+        <v>28.20270120430176</v>
       </c>
       <c r="G19">
-        <v>2.095362837294044</v>
+        <v>3.224502333223725</v>
       </c>
       <c r="H19">
-        <v>3.626431431152433</v>
+        <v>3.703674273499982</v>
       </c>
       <c r="I19">
-        <v>2.628351583754249</v>
+        <v>2.813714537720548</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.40701079073991</v>
+        <v>18.1065736095056</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>14.56206538828844</v>
       </c>
       <c r="M19">
-        <v>16.03290227990657</v>
+        <v>12.49046510815599</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>15.78410931551492</v>
       </c>
       <c r="P19">
-        <v>13.59348156302978</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>12.85259601194434</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.91971820538097</v>
+        <v>16.82877611401804</v>
       </c>
       <c r="C20">
-        <v>14.68515772367713</v>
+        <v>15.55431222082923</v>
       </c>
       <c r="D20">
-        <v>4.971595479731407</v>
+        <v>4.860824586815112</v>
       </c>
       <c r="E20">
-        <v>33.24514150770827</v>
+        <v>33.3382517992774</v>
       </c>
       <c r="F20">
-        <v>33.99047777771649</v>
+        <v>30.60154174650195</v>
       </c>
       <c r="G20">
-        <v>2.090061062487093</v>
+        <v>3.159832106697773</v>
       </c>
       <c r="H20">
-        <v>3.160652591400856</v>
+        <v>3.233628331227486</v>
       </c>
       <c r="I20">
-        <v>2.824675080093034</v>
+        <v>2.954663142714448</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>22.1224755399364</v>
+        <v>19.3563298581585</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>15.41393616876031</v>
       </c>
       <c r="M20">
-        <v>17.07258981410265</v>
+        <v>13.56457741961299</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>16.67976890811961</v>
       </c>
       <c r="P20">
-        <v>14.05006810108689</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>13.10400339434544</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.09151040296799</v>
+        <v>17.53861508317997</v>
       </c>
       <c r="C21">
-        <v>15.72361600542789</v>
+        <v>15.8042092905926</v>
       </c>
       <c r="D21">
-        <v>4.982102849512518</v>
+        <v>5.018096554452933</v>
       </c>
       <c r="E21">
-        <v>36.09747860540344</v>
+        <v>36.1035346551669</v>
       </c>
       <c r="F21">
-        <v>35.64959933584478</v>
+        <v>30.21032918011851</v>
       </c>
       <c r="G21">
-        <v>2.082412640629166</v>
+        <v>9.610272814622267</v>
       </c>
       <c r="H21">
-        <v>3.539544778249478</v>
+        <v>3.544231548954287</v>
       </c>
       <c r="I21">
-        <v>3.109751984211838</v>
+        <v>3.125289578068494</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>22.84328642904283</v>
+        <v>18.81586907878459</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>14.80427895403018</v>
       </c>
       <c r="M21">
-        <v>18.19431172567579</v>
+        <v>13.42904939266284</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>17.23929108791994</v>
       </c>
       <c r="P21">
-        <v>14.00261799986848</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>12.6990076470491</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.81853194758586</v>
+        <v>17.96256274719391</v>
       </c>
       <c r="C22">
-        <v>16.3136549329878</v>
+        <v>15.85409941407406</v>
       </c>
       <c r="D22">
-        <v>4.989373069416311</v>
+        <v>5.152117754033799</v>
       </c>
       <c r="E22">
-        <v>37.45159952258352</v>
+        <v>37.40128039205231</v>
       </c>
       <c r="F22">
-        <v>36.64423816558447</v>
+        <v>29.80283933130062</v>
       </c>
       <c r="G22">
-        <v>2.077602055598364</v>
+        <v>14.59895592834869</v>
       </c>
       <c r="H22">
-        <v>3.764712019856405</v>
+        <v>3.726135127823111</v>
       </c>
       <c r="I22">
-        <v>3.285407179400059</v>
+        <v>3.226977452361145</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>23.27831513877442</v>
+        <v>18.38603854278558</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>14.36433706142775</v>
       </c>
       <c r="M22">
-        <v>18.872225326069</v>
+        <v>13.27561519659281</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>17.54101700689949</v>
       </c>
       <c r="P22">
-        <v>13.96139105993377</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>12.42695670397728</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.4531088070461</v>
+        <v>17.79226723266538</v>
       </c>
       <c r="C23">
-        <v>15.98263805069671</v>
+        <v>15.90373363707852</v>
       </c>
       <c r="D23">
-        <v>4.985979422544736</v>
+        <v>5.061270793734226</v>
       </c>
       <c r="E23">
-        <v>36.73492076822157</v>
+        <v>36.71775760978523</v>
       </c>
       <c r="F23">
-        <v>36.16340241596274</v>
+        <v>30.26638003131228</v>
       </c>
       <c r="G23">
-        <v>2.080127761684529</v>
+        <v>11.11407400748097</v>
       </c>
       <c r="H23">
-        <v>3.645721812094031</v>
+        <v>3.632504618450146</v>
       </c>
       <c r="I23">
-        <v>3.188807777270152</v>
+        <v>3.172238317505412</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>23.08662443522896</v>
+        <v>18.76667599648721</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>14.70369633618851</v>
       </c>
       <c r="M23">
-        <v>18.51979493724122</v>
+        <v>13.48012393287195</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>17.44095698160805</v>
       </c>
       <c r="P23">
-        <v>13.99659054993668</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>12.60940633569038</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.97453421427125</v>
+        <v>16.87666756165941</v>
       </c>
       <c r="C24">
-        <v>14.71608500819642</v>
+        <v>15.6007680909686</v>
       </c>
       <c r="D24">
-        <v>4.969465759423032</v>
+        <v>4.8470017695476</v>
       </c>
       <c r="E24">
-        <v>33.9101671777334</v>
+        <v>34.00230688449053</v>
       </c>
       <c r="F24">
-        <v>34.23092568667107</v>
+        <v>30.83580044280794</v>
       </c>
       <c r="G24">
-        <v>2.089868522846298</v>
+        <v>3.09771353807037</v>
       </c>
       <c r="H24">
-        <v>3.186625761919019</v>
+        <v>3.258898362361092</v>
       </c>
       <c r="I24">
-        <v>2.823462334566298</v>
+        <v>2.950323353160039</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>22.29101170598631</v>
+        <v>19.5105745459497</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>15.530618585722</v>
       </c>
       <c r="M24">
-        <v>17.11827912456662</v>
+        <v>13.68157755800027</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>16.72583068026094</v>
       </c>
       <c r="P24">
-        <v>14.11075035493714</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>13.15073479661955</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.24204764717364</v>
+        <v>15.36525737407415</v>
       </c>
       <c r="C25">
-        <v>13.25855391863453</v>
+        <v>14.12850041426054</v>
       </c>
       <c r="D25">
-        <v>4.945180860581661</v>
+        <v>4.736028539206595</v>
       </c>
       <c r="E25">
-        <v>30.62584735386953</v>
+        <v>30.78830693367824</v>
       </c>
       <c r="F25">
-        <v>32.07940780347236</v>
+        <v>29.15190083547844</v>
       </c>
       <c r="G25">
-        <v>2.100660405204667</v>
+        <v>3.910953429009539</v>
       </c>
       <c r="H25">
-        <v>2.674775351647317</v>
+        <v>2.805343262193195</v>
       </c>
       <c r="I25">
-        <v>2.564408694688774</v>
+        <v>2.649801457701626</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>21.42472629041935</v>
+        <v>19.00099266910808</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>15.49071334640496</v>
       </c>
       <c r="M25">
-        <v>15.4847458644983</v>
+        <v>12.86720250191253</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>15.2425896836939</v>
       </c>
       <c r="P25">
-        <v>14.23901582896791</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>13.36269174166207</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
